--- a/updated_cost_data.xlsx
+++ b/updated_cost_data.xlsx
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="C57" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="D57" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="E57" t="n">
-        <v>1000</v>
+        <v>12700</v>
       </c>
       <c r="F57" t="n">
-        <v>1000</v>
+        <v>5300</v>
       </c>
       <c r="G57" t="n">
-        <v>9000</v>
+        <v>43500</v>
       </c>
     </row>
   </sheetData>
